--- a/biology/Botanique/Rosoideae/Rosoideae.xlsx
+++ b/biology/Botanique/Rosoideae/Rosoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Rosoideae comprend de nombreux arbustes et arbrisseaux et des plantes herbacées vivaces, dont certaines sont cultivées pour leurs fruits, comme les fraisiers et les framboisiers ou pour leurs fleurs (rosiers). On y trouve également quelques espèces herbacées annuelles.
-Cette sous-famille se caractérise notamment par les fruits en akènes ou en drupéoles, et par un nombre chromosomique de base n=7[1].
+Cette sous-famille se caractérise notamment par les fruits en akènes ou en drupéoles, et par un nombre chromosomique de base n=7.
 La délimitation des Rosoideae n'est pas encore totalement arrêtée. Des recherches génétiques récentes  (par ex. Eriksson et al., 2003) ont entraîné divers changements au niveau des genres, notamment le retrait de certains genres comme Cercocarpus, Cowania, Dryas, Purshia, précédemment rangés dans cette sous-famille. D'autres recherches sont en cours.
 </t>
         </is>
@@ -513,14 +525,16 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 mars 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 mars 2016) :
 tribu Colurieae
 tribu Potentilleae
 tribu Roseae
 tribu Sanguisorbeae
-Selon Angiosperm Phylogeny Website                        (7 novembre 2023)[3] :
+Selon Angiosperm Phylogeny Website                        (7 novembre 2023) :
 Colurieae
 Potentilleae
 Roseae
@@ -554,7 +568,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acaena
